--- a/excel_files/Banamex.xlsx
+++ b/excel_files/Banamex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">Luciano Hernandez</t>
   </si>
   <si>
+    <t xml:space="preserve">Banamex</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amanda Chavez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banamex</t>
   </si>
   <si>
     <t xml:space="preserve">Sebastian Torres</t>
@@ -233,10 +233,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.67"/>
@@ -268,19 +268,22 @@
       <c r="C2" s="0" t="n">
         <v>5678.9</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>45002</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>9012.34</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,7 +297,7 @@
         <v>4567.89</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,7 +311,7 @@
         <v>1234.56</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,7 +325,7 @@
         <v>5678.9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +339,7 @@
         <v>345.67</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,7 +353,7 @@
         <v>1234.56</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,7 +367,7 @@
         <v>789.01</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,7 +381,7 @@
         <v>2345.67</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +395,7 @@
         <v>1234.56</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,7 +409,7 @@
         <v>345.67</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +423,7 @@
         <v>789.01</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,7 +437,7 @@
         <v>2345.67</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +451,7 @@
         <v>123.45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +465,7 @@
         <v>6789.01</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,7 +479,7 @@
         <v>1234.56</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,7 +493,7 @@
         <v>5678.9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +507,7 @@
         <v>345.67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,7 +521,7 @@
         <v>1234.56</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +535,7 @@
         <v>789.01</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +549,7 @@
         <v>2345.67</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +563,7 @@
         <v>6789.01</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +577,7 @@
         <v>1234.56</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,7 +591,7 @@
         <v>5678.9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,7 +605,7 @@
         <v>8901.23</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,7 +619,7 @@
         <v>2345.67</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,7 +633,7 @@
         <v>6789.01</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,7 +647,7 @@
         <v>1234.56</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +661,7 @@
         <v>5678.9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,7 +675,7 @@
         <v>9012.34</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +689,7 @@
         <v>345.67</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
